--- a/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,52; 25,97</t>
+          <t>16,79; 50,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,61</t>
+          <t>4,02; 33,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 22,45</t>
+          <t>4,22; 35,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 37,66</t>
+          <t>0,0; 48,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,25; 24,04</t>
+          <t>3,67; 31,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 22,06</t>
+          <t>0,0; 23,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,73</t>
+          <t>15,05; 53,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,9; 39,19</t>
+          <t>0,0; 53,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 23,3</t>
+          <t>13,53; 36,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 19,1</t>
+          <t>5,09; 22,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,15</t>
+          <t>11,97; 36,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,27; 33,15</t>
+          <t>0,0; 38,64</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>24,64%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,77</t>
+          <t>16,52; 25,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,61; 26,55</t>
+          <t>11,5; 19,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 25,42</t>
+          <t>14,07; 22,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 35,36</t>
+          <t>17,05; 37,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,75</t>
+          <t>14,25; 24,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 30,44</t>
+          <t>12,92; 22,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,75</t>
+          <t>15,2; 23,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 27,72</t>
+          <t>10,9; 39,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,59</t>
+          <t>16,45; 23,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,19</t>
+          <t>13,27; 19,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,22</t>
+          <t>15,24; 21,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 25,35</t>
+          <t>17,27; 33,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>18,53%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,79; 50,72</t>
+          <t>14,4; 24,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 33,7</t>
+          <t>15,12; 25,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 35,23</t>
+          <t>19,22; 31,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,01</t>
+          <t>6,06; 31,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 31,66</t>
+          <t>19,69; 31,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,25</t>
+          <t>14,35; 24,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 53,26</t>
+          <t>14,51; 24,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,72</t>
+          <t>11,28; 39,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 36,46</t>
+          <t>17,98; 26,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 22,37</t>
+          <t>16,16; 23,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 36,14</t>
+          <t>18,33; 26,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,64</t>
+          <t>11,08; 30,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,98</t>
+          <t>14,48; 23,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,12; 25,28</t>
+          <t>16,61; 26,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,22; 31,14</t>
+          <t>14,93; 25,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 31,85</t>
+          <t>8,99; 35,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,69; 31,39</t>
+          <t>20,78; 31,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 24,5</t>
+          <t>20,16; 30,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,52</t>
+          <t>15,09; 24,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,28; 39,79</t>
+          <t>5,59; 27,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 26,21</t>
+          <t>19,1; 26,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,78</t>
+          <t>20,17; 27,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,26</t>
+          <t>16,51; 23,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,08; 30,12</t>
+          <t>9,58; 25,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 50,72</t>
+          <t>16,85; 52,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 33,7</t>
+          <t>3,33; 31,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 35,23</t>
+          <t>4,19; 32,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 31,66</t>
+          <t>3,71; 33,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,25</t>
+          <t>0,0; 23,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 53,26</t>
+          <t>11,41; 53,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,53; 36,46</t>
+          <t>13,29; 35,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 22,37</t>
+          <t>5,25; 22,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,97; 36,14</t>
+          <t>11,25; 36,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 27,31</t>
+          <t>14,58; 27,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,45; 27,82</t>
+          <t>14,86; 27,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 22,89</t>
+          <t>11,14; 23,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 26,56</t>
+          <t>2,77; 27,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,14; 33,68</t>
+          <t>19,11; 33,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 32,77</t>
+          <t>18,67; 32,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 22,31</t>
+          <t>10,21; 21,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,5; 59,24</t>
+          <t>9,99; 53,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 28,12</t>
+          <t>19,02; 28,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 27,64</t>
+          <t>18,28; 27,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 20,79</t>
+          <t>11,96; 20,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 30,58</t>
+          <t>8,32; 31,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 25,97</t>
+          <t>16,41; 25,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 19,61</t>
+          <t>11,04; 18,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,07; 22,45</t>
+          <t>13,79; 22,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 37,66</t>
+          <t>15,88; 37,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 24,04</t>
+          <t>14,04; 22,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 22,06</t>
+          <t>13,15; 22,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,2; 23,73</t>
+          <t>15,06; 23,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 39,19</t>
+          <t>9,86; 37,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 23,3</t>
+          <t>16,65; 23,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 19,1</t>
+          <t>13,48; 19,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,15</t>
+          <t>15,3; 21,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 33,15</t>
+          <t>17,01; 34,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,98</t>
+          <t>14,19; 24,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 25,28</t>
+          <t>15,55; 25,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 31,14</t>
+          <t>19,75; 31,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 31,85</t>
+          <t>5,73; 34,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,69; 31,39</t>
+          <t>19,62; 31,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,35; 24,5</t>
+          <t>14,51; 25,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 24,52</t>
+          <t>14,33; 25,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 39,79</t>
+          <t>10,49; 37,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 26,21</t>
+          <t>18,11; 25,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,78</t>
+          <t>16,21; 23,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 26,26</t>
+          <t>18,71; 26,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 30,12</t>
+          <t>11,38; 30,47</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,77</t>
+          <t>14,5; 23,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 26,55</t>
+          <t>16,35; 26,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,93; 25,42</t>
+          <t>15,24; 24,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 35,36</t>
+          <t>9,02; 34,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,75</t>
+          <t>21,58; 32,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,16; 30,44</t>
+          <t>20,02; 30,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,75</t>
+          <t>15,52; 24,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 27,72</t>
+          <t>6,41; 28,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,1; 26,59</t>
+          <t>19,39; 26,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,17; 27,19</t>
+          <t>19,75; 26,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,22</t>
+          <t>16,49; 23,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,58; 25,35</t>
+          <t>10,24; 26,33</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,95</t>
+          <t>17,89; 23,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,73; 21,33</t>
+          <t>16,49; 21,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 22,19</t>
+          <t>16,94; 22,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,61; 26,85</t>
+          <t>14,88; 26,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,49; 26,14</t>
+          <t>20,77; 26,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 23,67</t>
+          <t>18,56; 23,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,35; 21,45</t>
+          <t>16,45; 21,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,48; 26,67</t>
+          <t>14,2; 28,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,89; 23,62</t>
+          <t>20,01; 23,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 21,91</t>
+          <t>18,04; 21,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,69; 21,03</t>
+          <t>17,49; 21,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 24,51</t>
+          <t>15,68; 24,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 52,66</t>
+          <t>14,81; 50,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 31,07</t>
+          <t>3,99; 33,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 32,72</t>
+          <t>4,06; 33,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,01</t>
+          <t>0,0; 47,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 33,26</t>
+          <t>3,66; 33,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,26</t>
+          <t>0,0; 23,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,41; 53,35</t>
+          <t>11,62; 50,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,72</t>
+          <t>0,0; 59,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 35,21</t>
+          <t>12,73; 35,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 22,33</t>
+          <t>4,11; 22,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 36,13</t>
+          <t>12,08; 35,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,64</t>
+          <t>0,0; 38,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,58; 27,71</t>
+          <t>14,6; 27,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,86; 27,46</t>
+          <t>15,47; 27,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 23,4</t>
+          <t>11,29; 23,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 27,82</t>
+          <t>2,78; 27,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,11; 33,54</t>
+          <t>19,61; 34,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 32,27</t>
+          <t>18,31; 32,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,21; 21,26</t>
+          <t>10,3; 21,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 53,72</t>
+          <t>9,99; 53,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 28,25</t>
+          <t>18,55; 28,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 27,37</t>
+          <t>18,68; 27,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,44</t>
+          <t>12,23; 20,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 31,06</t>
+          <t>8,46; 32,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 25,97</t>
+          <t>15,76; 25,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,04; 18,98</t>
+          <t>11,25; 19,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 22,22</t>
+          <t>13,99; 22,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,88; 37,17</t>
+          <t>16,6; 37,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,04; 22,69</t>
+          <t>14,31; 24,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,15; 22,35</t>
+          <t>13,3; 22,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 23,28</t>
+          <t>14,97; 23,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 37,98</t>
+          <t>10,89; 41,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 23,08</t>
+          <t>16,39; 23,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,68</t>
+          <t>13,44; 19,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 21,44</t>
+          <t>15,32; 21,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,01; 34,0</t>
+          <t>16,92; 33,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 24,74</t>
+          <t>13,81; 24,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,57</t>
+          <t>15,43; 25,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 31,79</t>
+          <t>19,24; 31,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 34,74</t>
+          <t>5,58; 31,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 31,05</t>
+          <t>19,03; 30,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 25,03</t>
+          <t>14,44; 24,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,33; 25,24</t>
+          <t>14,2; 24,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,49; 37,87</t>
+          <t>10,68; 39,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,79</t>
+          <t>17,96; 25,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 23,84</t>
+          <t>16,16; 23,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,71; 26,3</t>
+          <t>18,54; 26,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 30,47</t>
+          <t>11,13; 29,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 23,78</t>
+          <t>14,9; 24,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 26,13</t>
+          <t>16,75; 26,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,24; 24,86</t>
+          <t>15,15; 24,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 34,48</t>
+          <t>9,23; 33,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 32,14</t>
+          <t>21,07; 32,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,02; 30,96</t>
+          <t>20,29; 30,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 24,91</t>
+          <t>14,99; 25,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 28,5</t>
+          <t>5,68; 30,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 26,71</t>
+          <t>19,54; 26,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,75; 26,84</t>
+          <t>19,75; 26,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,49; 23,64</t>
+          <t>16,65; 23,33</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 26,33</t>
+          <t>10,53; 27,55</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,05</t>
+          <t>17,64; 22,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,49; 21,3</t>
+          <t>16,55; 21,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 22,04</t>
+          <t>17,15; 21,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,88; 26,45</t>
+          <t>14,38; 25,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,77; 26,34</t>
+          <t>20,72; 26,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,56; 23,84</t>
+          <t>18,6; 23,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,45; 21,48</t>
+          <t>16,56; 21,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 28,13</t>
+          <t>14,09; 27,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 23,79</t>
+          <t>19,7; 23,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,04; 21,65</t>
+          <t>18,12; 21,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,1</t>
+          <t>17,42; 21,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,68; 24,52</t>
+          <t>15,57; 24,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,52%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,81; 50,52</t>
+          <t>18,05; 30,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 33,72</t>
+          <t>16,08; 28,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 33,9</t>
+          <t>13,09; 24,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,65</t>
+          <t>9,01; 45,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 33,21</t>
+          <t>17,21; 28,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,49</t>
+          <t>14,84; 25,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 50,86</t>
+          <t>11,21; 22,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 59,9</t>
+          <t>3,16; 26,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 35,04</t>
+          <t>19,02; 28,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,06</t>
+          <t>16,77; 25,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 35,47</t>
+          <t>13,3; 20,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,11</t>
+          <t>8,09; 26,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>23,69%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 27,58</t>
+          <t>14,25; 24,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 27,75</t>
+          <t>12,92; 22,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 23,57</t>
+          <t>15,2; 23,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 27,6</t>
+          <t>10,2; 36,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,61; 34,07</t>
+          <t>16,52; 25,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 32,11</t>
+          <t>11,5; 19,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,3; 21,85</t>
+          <t>14,07; 22,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 53,56</t>
+          <t>16,6; 36,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,55; 28,15</t>
+          <t>16,45; 23,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 27,64</t>
+          <t>13,27; 19,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 20,28</t>
+          <t>15,24; 21,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 32,27</t>
+          <t>16,56; 32,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>20,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,17%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,93</t>
+          <t>19,69; 31,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,25; 19,68</t>
+          <t>14,35; 24,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 22,33</t>
+          <t>14,51; 24,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 37,75</t>
+          <t>10,35; 39,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 24,11</t>
+          <t>14,4; 24,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 22,15</t>
+          <t>15,12; 25,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 23,51</t>
+          <t>19,22; 31,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 41,0</t>
+          <t>5,43; 29,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 23,46</t>
+          <t>17,98; 26,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 19,4</t>
+          <t>16,16; 23,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 21,18</t>
+          <t>18,33; 26,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 33,3</t>
+          <t>10,14; 28,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,81; 24,89</t>
+          <t>20,78; 31,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,43; 25,77</t>
+          <t>20,16; 30,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,24; 31,0</t>
+          <t>15,09; 24,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,58; 31,8</t>
+          <t>5,18; 26,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,03; 30,6</t>
+          <t>14,48; 23,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,95</t>
+          <t>16,61; 26,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 24,41</t>
+          <t>14,93; 25,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 39,14</t>
+          <t>8,95; 34,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 25,64</t>
+          <t>19,1; 26,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 23,42</t>
+          <t>20,17; 27,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 26,23</t>
+          <t>16,51; 23,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 29,28</t>
+          <t>9,34; 25,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>19,09%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 24,1</t>
+          <t>20,49; 26,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 26,47</t>
+          <t>18,62; 23,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 24,99</t>
+          <t>16,35; 21,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 33,88</t>
+          <t>13,06; 25,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,07; 32,39</t>
+          <t>17,59; 22,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,29; 30,96</t>
+          <t>16,73; 21,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,99; 25,26</t>
+          <t>17,21; 22,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,68; 30,07</t>
+          <t>13,95; 25,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 26,51</t>
+          <t>19,89; 23,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,75; 26,98</t>
+          <t>18,19; 21,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,65; 23,33</t>
+          <t>17,69; 21,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 27,55</t>
+          <t>15,12; 23,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>20,28%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,56%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>19,85%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>19,04%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,82%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>21,78%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>19,96%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,84%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 22,79</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 21,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,15; 21,95</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>14,38; 25,85</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20,72; 26,16</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,6; 23,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>16,56; 21,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,09; 27,41</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>19,7; 23,67</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>18,12; 21,67</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>17,42; 21,06</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>15,57; 24,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
